--- a/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-10/result-10_03_2025_pruned_9098766103_15-17.xlsx
+++ b/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-10/result-10_03_2025_pruned_9098766103_15-17.xlsx
@@ -517,7 +517,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9098771428</t>
+          <t>9098754922</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1549</v>
+        <v>4324</v>
       </c>
       <c r="I2">
         <f>IF(E2=E1,H2+I1,H2)</f>
@@ -559,17 +559,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -581,7 +581,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9098758430</t>
+          <t>9098761282</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-10T13:47:00+00:00</t>
+          <t>2025-03-10T13:15:00+00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-10T14:17:00+00:00</t>
+          <t>2025-03-10T13:45:00+00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>17478</v>
+        <v>5787</v>
       </c>
       <c r="I3">
         <f>IF(E3=E2,H3+I2,H3)</f>
@@ -645,7 +645,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9098754922</t>
+          <t>9098771428</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-10T14:28:00+00:00</t>
+          <t>2025-03-10T13:45:00+00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-10T14:38:00+00:00</t>
+          <t>2025-03-10T14:15:00+00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>11764</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f>IF(E4=E3,H4+I3,H4)</f>
@@ -687,17 +687,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -709,7 +709,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9098761282</t>
+          <t>9098758430</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-10T14:43:00+00:00</t>
+          <t>2025-03-10T14:32:00+00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-10T15:13:00+00:00</t>
+          <t>2025-03-10T15:02:00+00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>5787</v>
+        <v>17478</v>
       </c>
       <c r="I5">
         <f>IF(E5=E4,H5+I4,H5)</f>
@@ -783,12 +783,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-10T15:18:00+00:00</t>
+          <t>2025-03-10T15:14:00+00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-10T15:48:00+00:00</t>
+          <t>2025-03-10T15:44:00+00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>5311</v>
+        <v>12368</v>
       </c>
       <c r="I6">
         <f>IF(E6=E5,H6+I5,H6)</f>
@@ -847,12 +847,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-10T15:55:00+00:00</t>
+          <t>2025-03-10T15:51:00+00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-10T16:25:00+00:00</t>
+          <t>2025-03-10T16:21:00+00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="G7" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
         <v>7907</v>
@@ -901,7 +901,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9098760680</t>
+          <t>9098749476</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,27 +911,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-10T17:10:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5702</v>
+        <v>4789</v>
       </c>
       <c r="I8">
         <f>IF(E8=E7,H8+I7,H8)</f>
@@ -943,22 +943,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T10:35:00+00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:05:00+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>1170</v>
+        <v>5478</v>
       </c>
       <c r="I9">
         <f>IF(E9=E8,H9+I8,H9)</f>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-10T10:32:00+00:00</t>
+          <t>2025-03-10T11:07:00+00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-10T11:02:00+00:00</t>
+          <t>2025-03-10T11:37:00+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
         <v>2199</v>
@@ -1093,7 +1093,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9098749476</t>
+          <t>9098759965</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-10T11:05:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-10T11:35:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>3476</v>
+        <v>828</v>
       </c>
       <c r="I11">
         <f>IF(E11=E10,H11+I10,H11)</f>
@@ -1140,24 +1140,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9098758322</t>
+          <t>9098761268</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T13:33:00+00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T14:03:00+00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>4512</v>
+        <v>3184</v>
       </c>
       <c r="I12">
         <f>IF(E12=E11,H12+I11,H12)</f>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9098754831</t>
+          <t>9098763301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-10T14:00:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>795</v>
+        <v>996</v>
       </c>
       <c r="I13">
         <f>IF(E13=E12,H13+I12,H13)</f>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1278,14 +1278,14 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9098761268</t>
+          <t>9098764950</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-10T14:04:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-10T14:34:00+00:00</t>
+          <t>2025-03-10T16:00:00+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1312,10 +1312,10 @@
         <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>4056</v>
+        <v>512</v>
       </c>
       <c r="I14">
         <f>IF(E14=E13,H14+I13,H14)</f>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1342,14 +1342,14 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9098759869</t>
+          <t>9098770206</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-10T14:36:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-10T15:06:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>2443</v>
+        <v>346</v>
       </c>
       <c r="I15">
         <f>IF(E15=E14,H15+I14,H15)</f>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1406,14 +1406,14 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9098763301</t>
+          <t>9098770208</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-10T15:08:00+00:00</t>
+          <t>2025-03-10T17:38:00+00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-10T15:38:00+00:00</t>
+          <t>2025-03-10T18:08:00+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>2197</v>
+        <v>8088</v>
       </c>
       <c r="I16">
         <f>IF(E16=E15,H16+I15,H16)</f>
@@ -1470,14 +1470,14 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9098766615</t>
+          <t>9098770570</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-10T15:40:00+00:00</t>
+          <t>2025-03-10T18:14:00+00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-10T16:10:00+00:00</t>
+          <t>2025-03-10T18:44:00+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H17" t="n">
-        <v>2369</v>
+        <v>6850</v>
       </c>
       <c r="I17">
         <f>IF(E17=E16,H17+I16,H17)</f>
@@ -1534,14 +1534,14 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9098770208</t>
+          <t>9098751581</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1551,27 +1551,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.799999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9824</v>
+        <v>1903</v>
       </c>
       <c r="I18">
         <f>IF(E18=E17,H18+I17,H18)</f>
@@ -1583,29 +1583,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9098770206</t>
+          <t>9098753407</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1615,27 +1615,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-10T17:38:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-10T18:08:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.299999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G19" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>8088</v>
+        <v>1088</v>
       </c>
       <c r="I19">
         <f>IF(E19=E18,H19+I18,H19)</f>
@@ -1647,29 +1647,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9098748007</t>
+          <t>9098758935</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-10T08:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-03-10T08:10:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1693,13 +1693,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>11757</v>
+        <v>1039</v>
       </c>
       <c r="I20">
         <f>IF(E20=E19,H20+I19,H20)</f>
@@ -1711,29 +1711,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>10.03.2025 08:00:00-10:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9098753407</t>
+          <t>9098754836</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T13:31:00+00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T14:01:00+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>9970</v>
+        <v>1172</v>
       </c>
       <c r="I21">
         <f>IF(E21=E20,H21+I20,H21)</f>
@@ -1790,14 +1790,14 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9098758935</t>
+          <t>9098762003</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1821,13 +1821,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>1039</v>
+        <v>1778</v>
       </c>
       <c r="I22">
         <f>IF(E22=E21,H22+I21,H22)</f>
@@ -1854,14 +1854,14 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9098750078</t>
+          <t>9098753100</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1871,27 +1871,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-10T13:31:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-03-10T13:41:00+00:00</t>
+          <t>2025-03-10T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1758</v>
+        <v>1903</v>
       </c>
       <c r="I23">
         <f>IF(E23=E22,H23+I22,H23)</f>
@@ -1908,24 +1908,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9098754836</t>
+          <t>9098753801</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1935,27 +1935,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-10T13:43:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-10T14:13:00+00:00</t>
+          <t>2025-03-10T14:50:00+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2885</v>
+        <v>1396</v>
       </c>
       <c r="I24">
         <f>IF(E24=E23,H24+I23,H24)</f>
@@ -1972,12 +1972,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9098755505</t>
+          <t>9098755293</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1999,27 +1999,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-10T14:17:00+00:00</t>
+          <t>2025-03-10T14:51:00+00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-03-10T14:27:00+00:00</t>
+          <t>2025-03-10T15:01:00+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>4192</v>
+        <v>1146</v>
       </c>
       <c r="I25">
         <f>IF(E25=E24,H25+I24,H25)</f>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2053,7 +2053,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9098764134</t>
+          <t>9098765649</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2063,27 +2063,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>4418</v>
+        <v>10048</v>
       </c>
       <c r="I26">
         <f>IF(E26=E25,H26+I25,H26)</f>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2110,14 +2110,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9098753100</t>
+          <t>9098752402</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2132,22 +2132,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-10T10:10:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1903</v>
+        <v>1349</v>
       </c>
       <c r="I27">
         <f>IF(E27=E26,H27+I26,H27)</f>
@@ -2159,17 +2159,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9098753801</t>
+          <t>9098749898</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2191,27 +2191,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-03-10T14:50:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1396</v>
+        <v>913</v>
       </c>
       <c r="I28">
         <f>IF(E28=E27,H28+I27,H28)</f>
@@ -2223,29 +2223,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9098755411</t>
+          <t>9098753765</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2255,27 +2255,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-10T14:51:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-10T15:01:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1228</v>
+        <v>1102</v>
       </c>
       <c r="I29">
         <f>IF(E29=E28,H29+I28,H29)</f>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2309,7 +2309,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9098762003</t>
+          <t>9098758322</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2319,27 +2319,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-10T15:04:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-10T15:34:00+00:00</t>
+          <t>2025-03-10T14:00:00+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>3462</v>
+        <v>786</v>
       </c>
       <c r="I30">
         <f>IF(E30=E29,H30+I29,H30)</f>
@@ -2351,29 +2351,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9098753765</t>
+          <t>9098764979</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>1590</v>
+        <v>5188</v>
       </c>
       <c r="I31">
         <f>IF(E31=E30,H31+I30,H31)</f>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2430,14 +2430,14 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9098759250</t>
+          <t>9098769185</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-10T13:32:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-03-10T13:57:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>2298</v>
+        <v>6365</v>
       </c>
       <c r="I32">
         <f>IF(E32=E31,H32+I31,H32)</f>
@@ -2484,24 +2484,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9098764979</t>
+          <t>9098770596</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T17:34:00+00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T18:04:00+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H33" t="n">
-        <v>2446</v>
+        <v>4765</v>
       </c>
       <c r="I33">
         <f>IF(E33=E32,H33+I32,H33)</f>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9098765148</t>
+          <t>9098770144</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-10T15:38:00+00:00</t>
+          <t>2025-03-10T18:06:00+00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-10T16:08:00+00:00</t>
+          <t>2025-03-10T18:36:00+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2589,13 +2589,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H34" t="n">
-        <v>8621</v>
+        <v>2958</v>
       </c>
       <c r="I34">
         <f>IF(E34=E33,H34+I33,H34)</f>
@@ -2612,24 +2612,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9098769185</t>
+          <t>9098770203</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T18:37:00+00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T19:07:00+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2656,10 +2656,10 @@
         <v>2.7</v>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
-        <v>4012</v>
+        <v>1560</v>
       </c>
       <c r="I35">
         <f>IF(E35=E34,H35+I34,H35)</f>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9098770203</t>
+          <t>9098749376</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-10T17:37:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-10T18:07:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>7616</v>
+        <v>1484</v>
       </c>
       <c r="I36">
         <f>IF(E36=E35,H36+I35,H36)</f>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9098770144</t>
+          <t>9098750695</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2767,27 +2767,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-10T18:08:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-10T18:38:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1560</v>
+        <v>1370</v>
       </c>
       <c r="I37">
         <f>IF(E37=E36,H37+I36,H37)</f>
@@ -2799,29 +2799,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098750695</t>
+          <t>9098755505</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>1293</v>
+        <v>1370</v>
       </c>
       <c r="I38">
         <f>IF(E38=E37,H38+I37,H38)</f>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2878,14 +2878,14 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9098758570</t>
+          <t>9098750078</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2895,12 +2895,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T13:11:00+00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T13:21:00+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2909,13 +2909,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>10736</v>
+        <v>1370</v>
       </c>
       <c r="I39">
         <f>IF(E39=E38,H39+I38,H39)</f>
@@ -2927,12 +2927,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2949,7 +2949,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9098766103</t>
+          <t>9098764291</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>37016</v>
+        <v>5194</v>
       </c>
       <c r="I40">
         <f>IF(E40=E39,H40+I39,H40)</f>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-10T16:06:00+00:00</t>
+          <t>2025-03-10T15:32:00+00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-10T16:36:00+00:00</t>
+          <t>2025-03-10T16:02:00+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>15.3</v>
+        <v>1.2</v>
       </c>
       <c r="G41" t="n">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>36596</v>
+        <v>2781</v>
       </c>
       <c r="I41">
         <f>IF(E41=E40,H41+I40,H41)</f>
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>16.5</v>
+        <v>2.4</v>
       </c>
       <c r="G42" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H42" t="n">
         <v>6483</v>
@@ -3205,7 +3205,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9098760528</t>
+          <t>9098823101</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3229,13 +3229,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>8496</v>
+        <v>9998</v>
       </c>
       <c r="I44">
         <f>IF(E44=E43,H44+I43,H44)</f>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3269,7 +3269,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9098823101</t>
+          <t>9098760528</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3293,10 +3293,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.6</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" t="n">
         <v>1877</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.5</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" t="n">
-        <v>6314</v>
+        <v>4937</v>
       </c>
       <c r="I46">
         <f>IF(E46=E45,H46+I45,H46)</f>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.1</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" t="n">
         <v>3722</v>
@@ -3485,10 +3485,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5.399999999999999</v>
+        <v>5.699999999999998</v>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
         <v>2964</v>
@@ -3525,7 +3525,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9098770246</t>
+          <t>9098766615</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T16:33:00+00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T17:03:00+00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3549,13 +3549,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7.5</v>
+        <v>6.299999999999998</v>
       </c>
       <c r="G49" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H49" t="n">
-        <v>11782</v>
+        <v>3930</v>
       </c>
       <c r="I49">
         <f>IF(E49=E48,H49+I48,H49)</f>
@@ -3582,14 +3582,14 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9098770209</t>
+          <t>9098770246</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-10T17:37:00+00:00</t>
+          <t>2025-03-10T17:18:00+00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-03-10T18:07:00+00:00</t>
+          <t>2025-03-10T17:48:00+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3613,13 +3613,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8.699999999999999</v>
+        <v>8.999999999999998</v>
       </c>
       <c r="G50" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" t="n">
-        <v>7859</v>
+        <v>15712</v>
       </c>
       <c r="I50">
         <f>IF(E50=E49,H50+I49,H50)</f>
@@ -3636,12 +3636,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3653,7 +3653,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9098770596</t>
+          <t>9098770209</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-10T18:11:00+00:00</t>
+          <t>2025-03-10T17:55:00+00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-03-10T18:41:00+00:00</t>
+          <t>2025-03-10T18:25:00+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>9.299999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="G51" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H51" t="n">
-        <v>4133</v>
+        <v>7859</v>
       </c>
       <c r="I51">
         <f>IF(E51=E50,H51+I50,H51)</f>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3845,7 +3845,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9098758595</t>
+          <t>9098760682</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-10T13:12:00+00:00</t>
+          <t>2025-03-10T13:14:00+00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-10T15:02:00+00:00</t>
+          <t>2025-03-10T15:04:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>2139</v>
+        <v>4714</v>
       </c>
       <c r="I54">
         <f>IF(E54=E53,H54+I53,H54)</f>
@@ -3909,7 +3909,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9098750500</t>
+          <t>9098748608</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1293</v>
+        <v>1174</v>
       </c>
       <c r="I55">
         <f>IF(E55=E54,H55+I54,H55)</f>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -3973,7 +3973,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9098748608</t>
+          <t>9098752073</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-10T10:31:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-10T11:01:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1707</v>
+        <v>800</v>
       </c>
       <c r="I56">
         <f>IF(E56=E55,H56+I55,H56)</f>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4037,7 +4037,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9098755293</t>
+          <t>9098748567</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4047,12 +4047,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T11:31:00+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>3052</v>
+        <v>1220</v>
       </c>
       <c r="I57">
         <f>IF(E57=E56,H57+I56,H57)</f>
@@ -4079,29 +4079,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9098752563</t>
+          <t>9098766103</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-10T13:11:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-10T13:21:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4125,13 +4125,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.8999999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H58" t="n">
-        <v>1926</v>
+        <v>36560</v>
       </c>
       <c r="I58">
         <f>IF(E58=E57,H58+I57,H58)</f>
@@ -4143,29 +4143,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9098762725</t>
+          <t>9098758736</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.7</v>
+        <v>13.2</v>
       </c>
       <c r="G59" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="H59" t="n">
-        <v>11029</v>
+        <v>36225</v>
       </c>
       <c r="I59">
         <f>IF(E59=E58,H59+I58,H59)</f>
@@ -4212,24 +4212,24 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9098764291</t>
+          <t>9098748816</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4239,27 +4239,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-10T15:35:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-10T16:05:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="G60" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>5930</v>
+        <v>2266</v>
       </c>
       <c r="I60">
         <f>IF(E60=E59,H60+I59,H60)</f>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4286,14 +4286,14 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9098758736</t>
+          <t>9098750500</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4303,27 +4303,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="G61" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6811</v>
+        <v>991</v>
       </c>
       <c r="I61">
         <f>IF(E61=E60,H61+I60,H61)</f>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4350,14 +4350,14 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9098748816</t>
+          <t>9098762001</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4381,13 +4381,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>2266</v>
+        <v>2814</v>
       </c>
       <c r="I62">
         <f>IF(E62=E61,H62+I61,H62)</f>
@@ -4399,29 +4399,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Özel İstek</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9098753218</t>
+          <t>9098754061</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-10T10:33:00+00:00</t>
+          <t>2025-03-10T13:31:00+00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-10T11:03:00+00:00</t>
+          <t>2025-03-10T13:41:00+00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4445,13 +4445,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>3244</v>
+        <v>1569</v>
       </c>
       <c r="I63">
         <f>IF(E63=E62,H63+I62,H63)</f>
@@ -4463,29 +4463,29 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9098753128</t>
+          <t>9098752563</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-10T11:03:00+00:00</t>
+          <t>2025-03-10T13:43:00+00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-03-10T11:33:00+00:00</t>
+          <t>2025-03-10T13:53:00+00:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4512,10 +4512,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2057</v>
       </c>
       <c r="I64">
         <f>IF(E64=E63,H64+I63,H64)</f>
@@ -4527,29 +4527,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9098762001</t>
+          <t>9098758570</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4559,12 +4559,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T14:04:00+00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T14:34:00+00:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4573,13 +4573,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.8999999999999999</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H65" t="n">
-        <v>797</v>
+        <v>11502</v>
       </c>
       <c r="I65">
         <f>IF(E65=E64,H65+I64,H65)</f>
@@ -4591,17 +4591,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Özel İstek</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H66" t="n">
-        <v>2305</v>
+        <v>5912</v>
       </c>
       <c r="I66">
         <f>IF(E66=E65,H66+I65,H66)</f>
@@ -4677,7 +4677,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9098765649</t>
+          <t>9098751684</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4687,27 +4687,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-03-10T17:10:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="G67" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>6264</v>
+        <v>3076</v>
       </c>
       <c r="I67">
         <f>IF(E67=E66,H67+I66,H67)</f>
@@ -4719,29 +4719,29 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9098749898</t>
+          <t>9098750566</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>819</v>
+        <v>1720</v>
       </c>
       <c r="I68">
         <f>IF(E68=E67,H68+I67,H68)</f>
@@ -4805,7 +4805,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9098751684</t>
+          <t>9098759250</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-10T10:32:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-03-10T11:02:00+00:00</t>
+          <t>2025-03-10T13:25:00+00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4829,13 +4829,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>2348</v>
+        <v>2330</v>
       </c>
       <c r="I69">
         <f>IF(E69=E68,H69+I68,H69)</f>
@@ -4852,24 +4852,24 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9098750566</t>
+          <t>9098759869</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4879,12 +4879,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-10T11:03:00+00:00</t>
+          <t>2025-03-10T13:26:00+00:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-03-10T11:33:00+00:00</t>
+          <t>2025-03-10T13:56:00+00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
-        <v>1720</v>
+        <v>1057</v>
       </c>
       <c r="I70">
         <f>IF(E70=E69,H70+I69,H70)</f>
@@ -4916,24 +4916,24 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9098752402</t>
+          <t>9098754831</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-10T11:33:00+00:00</t>
+          <t>2025-03-10T13:57:00+00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-03-10T12:03:00+00:00</t>
+          <t>2025-03-10T14:27:00+00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4957,13 +4957,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>124</v>
+        <v>1648</v>
       </c>
       <c r="I71">
         <f>IF(E71=E70,H71+I70,H71)</f>
@@ -4980,24 +4980,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9098759965</t>
+          <t>9098765683</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5021,13 +5021,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H72" t="n">
-        <v>1550</v>
+        <v>6306</v>
       </c>
       <c r="I72">
         <f>IF(E72=E71,H72+I71,H72)</f>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5054,14 +5054,14 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9098765683</t>
+          <t>9098765148</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T15:38:00+00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T16:08:00+00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="G73" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
-        <v>5657</v>
+        <v>8263</v>
       </c>
       <c r="I73">
         <f>IF(E73=E72,H73+I72,H73)</f>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5125,7 +5125,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9098764950</t>
+          <t>9098750204</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5135,27 +5135,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-10T15:32:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-10T16:02:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2684</v>
+        <v>1293</v>
       </c>
       <c r="I74">
         <f>IF(E74=E73,H74+I73,H74)</f>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5182,14 +5182,14 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9098770570</t>
+          <t>9098764134</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5199,27 +5199,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>39582</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="G75" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>13278</v>
+        <v>3078</v>
       </c>
       <c r="I75">
         <f>IF(E75=E74,H75+I74,H75)</f>
@@ -5231,29 +5231,29 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9098751581</t>
+          <t>9098767747</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
-        <v>1903</v>
+        <v>7835</v>
       </c>
       <c r="I76">
         <f>IF(E76=E75,H76+I75,H76)</f>
@@ -5310,14 +5310,14 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9098754061</t>
+          <t>9098758595</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5332,22 +5332,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T14:50:00+00:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F77" t="n">
         <v>0.3</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1396</v>
+        <v>2391</v>
       </c>
       <c r="I77">
         <f>IF(E77=E76,H77+I76,H77)</f>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5381,7 +5381,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9098754566</t>
+          <t>9098766402</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5391,27 +5391,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-10T13:11:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-10T13:21:00+00:00</t>
+          <t>2025-03-10T16:50:00+00:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F78" t="n">
         <v>0.3</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1224</v>
+        <v>828</v>
       </c>
       <c r="I78">
         <f>IF(E78=E77,H78+I77,H78)</f>
@@ -5423,29 +5423,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9098764682</t>
+          <t>9098753128</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5455,27 +5455,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-10T15:10:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="G79" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>9137</v>
+        <v>4282</v>
       </c>
       <c r="I79">
         <f>IF(E79=E78,H79+I78,H79)</f>
@@ -5487,29 +5487,29 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9098767747</t>
+          <t>9098753218</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5519,27 +5519,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <f>IF(E80=E79,H80+I79,H80)</f>
@@ -5556,24 +5556,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9098760682</t>
+          <t>9098754566</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5588,22 +5588,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-03-10T14:50:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F81" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>4958</v>
+        <v>2407</v>
       </c>
       <c r="I81">
         <f>IF(E81=E80,H81+I80,H81)</f>
@@ -5615,17 +5615,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5637,7 +5637,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9098766402</t>
+          <t>9098762725</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5652,22 +5652,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-03-10T16:50:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>43480</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>3251</v>
+        <v>9137</v>
       </c>
       <c r="I82">
         <f>IF(E82=E81,H82+I81,H82)</f>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9098752073</t>
+          <t>9098764682</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5711,12 +5711,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T15:40:00+00:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5725,13 +5725,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="G83" t="n">
+        <v>11</v>
+      </c>
+      <c r="H83" t="n">
         <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1649</v>
       </c>
       <c r="I83">
         <f>IF(E83=E82,H83+I82,H83)</f>
@@ -5743,29 +5743,29 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9098748567</t>
+          <t>9098760680</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-03-10T10:31:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-03-10T11:01:00+00:00</t>
+          <t>2025-03-10T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5789,13 +5789,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H84" t="n">
-        <v>1220</v>
+        <v>5123</v>
       </c>
       <c r="I84">
         <f>IF(E84=E83,H84+I83,H84)</f>
@@ -5807,29 +5807,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>9098749376</t>
+          <t>9098748007</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5839,27 +5839,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-10T11:02:00+00:00</t>
+          <t>2025-03-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-03-10T11:32:00+00:00</t>
+          <t>2025-03-10T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>9541</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1120</v>
+        <v>11757</v>
       </c>
       <c r="I85">
         <f>IF(E85=E84,H85+I84,H85)</f>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -5886,14 +5886,14 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>9098750204</t>
+          <t>9098755411</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5917,13 +5917,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H86" t="n">
-        <v>1293</v>
+        <v>10419</v>
       </c>
       <c r="I86">
         <f>IF(E86=E85,H86+I85,H86)</f>
@@ -6725,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6747,13 +6747,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6769,13 +6769,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -6806,10 +6806,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6828,16 +6828,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6856,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -6890,10 +6890,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6940,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6968,16 +6968,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6996,16 +6996,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7024,10 +7024,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -7080,16 +7080,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>60</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -7212,13 +7212,13 @@
         <v>90</v>
       </c>
       <c r="D25" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
       </c>
       <c r="F25" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
@@ -7271,10 +7271,10 @@
         <v>120</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -7293,16 +7293,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
         <v>60</v>
@@ -7355,10 +7355,10 @@
         <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F30" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -7405,13 +7405,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F32" t="n">
         <v>30</v>
@@ -7433,16 +7433,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E33" t="n">
         <v>30</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -7461,16 +7461,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E34" t="n">
         <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -7489,13 +7489,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
         <v>30</v>
-      </c>
-      <c r="D35" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10</v>
       </c>
       <c r="F35" t="n">
         <v>30</v>
@@ -7545,16 +7545,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -7942,11 +7942,11 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -8278,11 +8278,11 @@
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8306,11 +8306,11 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8334,11 +8334,11 @@
         <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -8362,11 +8362,11 @@
         <v>4</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -8698,11 +8698,11 @@
         <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -8726,11 +8726,11 @@
         <v>3</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -9062,11 +9062,11 @@
         <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9090,11 +9090,11 @@
         <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9118,11 +9118,11 @@
         <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9650,11 +9650,11 @@
         <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9678,11 +9678,11 @@
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9706,11 +9706,11 @@
         <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9734,11 +9734,11 @@
         <v>4</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9846,11 +9846,11 @@
         <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9874,11 +9874,11 @@
         <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9902,11 +9902,11 @@
         <v>4</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9930,11 +9930,11 @@
         <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10434,11 +10434,11 @@
         <v>4</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10462,11 +10462,11 @@
         <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10490,11 +10490,11 @@
         <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10518,11 +10518,11 @@
         <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10630,11 +10630,11 @@
         <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10658,11 +10658,11 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10686,11 +10686,11 @@
         <v>4</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10714,11 +10714,11 @@
         <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10826,11 +10826,11 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10854,11 +10854,11 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10910,11 +10910,11 @@
         <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11218,11 +11218,11 @@
         <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11246,11 +11246,11 @@
         <v>4</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11274,11 +11274,11 @@
         <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11302,11 +11302,11 @@
         <v>4</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11414,11 +11414,11 @@
         <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11442,11 +11442,11 @@
         <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11470,11 +11470,11 @@
         <v>4</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11498,11 +11498,11 @@
         <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11610,11 +11610,11 @@
         <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11638,11 +11638,11 @@
         <v>4</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11666,11 +11666,11 @@
         <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12002,11 +12002,11 @@
         <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12030,11 +12030,11 @@
         <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12058,11 +12058,11 @@
         <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12086,11 +12086,11 @@
         <v>4</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12394,11 +12394,11 @@
         <v>4</v>
       </c>
       <c r="E171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12422,11 +12422,11 @@
         <v>4</v>
       </c>
       <c r="E172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12450,11 +12450,11 @@
         <v>4</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12478,11 +12478,11 @@
         <v>4</v>
       </c>
       <c r="E174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12590,11 +12590,11 @@
         <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12618,11 +12618,11 @@
         <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12646,11 +12646,11 @@
         <v>4</v>
       </c>
       <c r="E180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12674,11 +12674,11 @@
         <v>4</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12786,11 +12786,11 @@
         <v>4</v>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12814,11 +12814,11 @@
         <v>4</v>
       </c>
       <c r="E186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12842,11 +12842,11 @@
         <v>4</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12870,11 +12870,11 @@
         <v>4</v>
       </c>
       <c r="E188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -12982,11 +12982,11 @@
         <v>4</v>
       </c>
       <c r="E192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13038,11 +13038,11 @@
         <v>4</v>
       </c>
       <c r="E194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13066,11 +13066,11 @@
         <v>4</v>
       </c>
       <c r="E195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13794,11 +13794,11 @@
         <v>4</v>
       </c>
       <c r="E221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13822,11 +13822,11 @@
         <v>4</v>
       </c>
       <c r="E222" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13850,11 +13850,11 @@
         <v>4</v>
       </c>
       <c r="E223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13962,11 +13962,11 @@
         <v>4</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13990,11 +13990,11 @@
         <v>4</v>
       </c>
       <c r="E228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14018,11 +14018,11 @@
         <v>4</v>
       </c>
       <c r="E229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14046,11 +14046,11 @@
         <v>4</v>
       </c>
       <c r="E230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14158,11 +14158,11 @@
         <v>4</v>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14186,11 +14186,11 @@
         <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14214,11 +14214,11 @@
         <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14578,11 +14578,11 @@
         <v>3</v>
       </c>
       <c r="E249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -14606,11 +14606,11 @@
         <v>3</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -14802,11 +14802,11 @@
         <v>4</v>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -15334,11 +15334,11 @@
         <v>4</v>
       </c>
       <c r="E276" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15362,11 +15362,11 @@
         <v>4</v>
       </c>
       <c r="E277" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15418,11 +15418,11 @@
         <v>4</v>
       </c>
       <c r="E279" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -15782,11 +15782,11 @@
         <v>4</v>
       </c>
       <c r="E292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -16314,11 +16314,11 @@
         <v>4</v>
       </c>
       <c r="E311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16342,11 +16342,11 @@
         <v>4</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F312" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16370,11 +16370,11 @@
         <v>4</v>
       </c>
       <c r="E313" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16398,11 +16398,11 @@
         <v>4</v>
       </c>
       <c r="E314" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16566,11 +16566,11 @@
         <v>3</v>
       </c>
       <c r="E320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -16762,11 +16762,11 @@
         <v>3</v>
       </c>
       <c r="E327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -17154,11 +17154,11 @@
         <v>4</v>
       </c>
       <c r="E341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -18274,11 +18274,11 @@
         <v>4</v>
       </c>
       <c r="E381" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18330,11 +18330,11 @@
         <v>4</v>
       </c>
       <c r="E383" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18358,11 +18358,11 @@
         <v>4</v>
       </c>
       <c r="E384" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18470,11 +18470,11 @@
         <v>4</v>
       </c>
       <c r="E388" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18498,11 +18498,11 @@
         <v>4</v>
       </c>
       <c r="E389" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18554,11 +18554,11 @@
         <v>4</v>
       </c>
       <c r="E391" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18694,11 +18694,11 @@
         <v>4</v>
       </c>
       <c r="E396" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18722,11 +18722,11 @@
         <v>4</v>
       </c>
       <c r="E397" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18750,11 +18750,11 @@
         <v>4</v>
       </c>
       <c r="E398" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18890,11 +18890,11 @@
         <v>4</v>
       </c>
       <c r="E403" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18918,11 +18918,11 @@
         <v>4</v>
       </c>
       <c r="E404" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18946,11 +18946,11 @@
         <v>4</v>
       </c>
       <c r="E405" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19058,11 +19058,11 @@
         <v>4</v>
       </c>
       <c r="E409" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F409" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19086,11 +19086,11 @@
         <v>4</v>
       </c>
       <c r="E410" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19114,11 +19114,11 @@
         <v>4</v>
       </c>
       <c r="E411" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19142,11 +19142,11 @@
         <v>4</v>
       </c>
       <c r="E412" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19310,11 +19310,11 @@
         <v>4</v>
       </c>
       <c r="E418" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F418" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19450,11 +19450,11 @@
         <v>4</v>
       </c>
       <c r="E423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19478,11 +19478,11 @@
         <v>4</v>
       </c>
       <c r="E424" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F424" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19506,11 +19506,11 @@
         <v>4</v>
       </c>
       <c r="E425" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19534,11 +19534,11 @@
         <v>4</v>
       </c>
       <c r="E426" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19646,11 +19646,11 @@
         <v>4</v>
       </c>
       <c r="E430" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19674,11 +19674,11 @@
         <v>4</v>
       </c>
       <c r="E431" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F431" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19702,11 +19702,11 @@
         <v>4</v>
       </c>
       <c r="E432" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19730,11 +19730,11 @@
         <v>4</v>
       </c>
       <c r="E433" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19842,11 +19842,11 @@
         <v>4</v>
       </c>
       <c r="E437" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19898,11 +19898,11 @@
         <v>4</v>
       </c>
       <c r="E439" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19926,11 +19926,11 @@
         <v>4</v>
       </c>
       <c r="E440" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20066,11 +20066,11 @@
         <v>11</v>
       </c>
       <c r="E445" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F445" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -20234,11 +20234,11 @@
         <v>4</v>
       </c>
       <c r="E451" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F451" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20262,11 +20262,11 @@
         <v>4</v>
       </c>
       <c r="E452" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20290,11 +20290,11 @@
         <v>4</v>
       </c>
       <c r="E453" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20318,11 +20318,11 @@
         <v>4</v>
       </c>
       <c r="E454" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20682,11 +20682,11 @@
         <v>4</v>
       </c>
       <c r="E467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -21802,11 +21802,11 @@
         <v>4</v>
       </c>
       <c r="E507" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21830,11 +21830,11 @@
         <v>4</v>
       </c>
       <c r="E508" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21886,11 +21886,11 @@
         <v>4</v>
       </c>
       <c r="E510" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22418,11 +22418,11 @@
         <v>11</v>
       </c>
       <c r="E529" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F529" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22614,11 +22614,11 @@
         <v>4</v>
       </c>
       <c r="E536" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22642,11 +22642,11 @@
         <v>4</v>
       </c>
       <c r="E537" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22670,11 +22670,11 @@
         <v>4</v>
       </c>
       <c r="E538" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22978,11 +22978,11 @@
         <v>4</v>
       </c>
       <c r="E549" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23006,11 +23006,11 @@
         <v>4</v>
       </c>
       <c r="E550" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23034,11 +23034,11 @@
         <v>4</v>
       </c>
       <c r="E551" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23174,11 +23174,11 @@
         <v>4</v>
       </c>
       <c r="E556" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23230,11 +23230,11 @@
         <v>4</v>
       </c>
       <c r="E558" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23258,11 +23258,11 @@
         <v>4</v>
       </c>
       <c r="E559" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23958,11 +23958,11 @@
         <v>4</v>
       </c>
       <c r="E584" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23986,11 +23986,11 @@
         <v>4</v>
       </c>
       <c r="E585" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F585" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24014,11 +24014,11 @@
         <v>4</v>
       </c>
       <c r="E586" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24042,11 +24042,11 @@
         <v>4</v>
       </c>
       <c r="E587" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24154,11 +24154,11 @@
         <v>4</v>
       </c>
       <c r="E591" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24182,11 +24182,11 @@
         <v>4</v>
       </c>
       <c r="E592" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F592" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24210,11 +24210,11 @@
         <v>4</v>
       </c>
       <c r="E593" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24238,11 +24238,11 @@
         <v>4</v>
       </c>
       <c r="E594" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24340,7 +24340,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55498</v>
+        <v>47864</v>
       </c>
     </row>
     <row r="3">
@@ -24350,7 +24350,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41129</v>
+        <v>33270</v>
       </c>
     </row>
     <row r="4">
@@ -24360,7 +24360,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36019</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="5">
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7989</v>
+        <v>14493</v>
       </c>
     </row>
     <row r="6">
@@ -24380,7 +24380,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28143</v>
+        <v>24986</v>
       </c>
     </row>
     <row r="7">
@@ -24390,7 +24390,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92124</v>
+        <v>20052</v>
       </c>
     </row>
     <row r="8">
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57977</v>
+        <v>61829</v>
       </c>
     </row>
     <row r="9">
@@ -24410,7 +24410,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4627</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="10">
@@ -24420,7 +24420,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31748</v>
+        <v>75979</v>
       </c>
     </row>
     <row r="11">
@@ -24430,7 +24430,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14876</v>
+        <v>27111</v>
       </c>
     </row>
     <row r="12">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28180</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="13">
@@ -24450,7 +24450,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15063</v>
+        <v>12206</v>
       </c>
     </row>
     <row r="14">
@@ -24460,7 +24460,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8209</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="15">
@@ -24470,7 +24470,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3989</v>
+        <v>20949</v>
       </c>
     </row>
     <row r="16">
@@ -24480,7 +24480,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1293</v>
+        <v>22176</v>
       </c>
     </row>
   </sheetData>
@@ -24494,7 +24494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-10490356.85555557</v>
+        <v>-3533272.711111105</v>
       </c>
     </row>
     <row r="3">
@@ -24531,7 +24531,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84999918.69999999</v>
+        <v>84999918.40000001</v>
       </c>
     </row>
     <row r="4">
@@ -24541,7 +24541,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7913472</v>
+        <v>7262208</v>
       </c>
     </row>
     <row r="5">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3555555555555555</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="8">
@@ -24582,6 +24582,16 @@
       </c>
       <c r="B8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance_cost</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>81.59999999999999</v>
       </c>
     </row>
   </sheetData>
